--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6ACECD-71C7-4B04-8008-C69CD0561D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66647BFD-0227-4D8C-ACE8-4D72E52A7AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>smallWaitForElementPresent</t>
   </si>
   <si>
-    <t>txt_searchBox</t>
-  </si>
-  <si>
     <t>getData=WaitForPageLoad</t>
   </si>
   <si>
@@ -70,21 +67,12 @@
     <t>link_viewDetails</t>
   </si>
   <si>
-    <t>txt_title_pcp</t>
-  </si>
-  <si>
     <t>getData=NewTitle</t>
   </si>
   <si>
     <t>button_saveDetails</t>
   </si>
   <si>
-    <t>button_confirmSave</t>
-  </si>
-  <si>
-    <t>h1Title_apfa</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -104,6 +92,18 @@
   </si>
   <si>
     <t>AutoTitleEdited</t>
+  </si>
+  <si>
+    <t>txt_search</t>
+  </si>
+  <si>
+    <t>link_debtInvestmentProfile_link</t>
+  </si>
+  <si>
+    <t>txt_title</t>
+  </si>
+  <si>
+    <t>button_save</t>
   </si>
 </sst>
 </file>
@@ -500,20 +500,20 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,153 +534,153 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -699,45 +699,45 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7">
         <v>9001</v>
@@ -745,7 +745,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66647BFD-0227-4D8C-ACE8-4D72E52A7AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432A5AB-0B1C-46B1-83BD-4F7091E6A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>button_save</t>
+  </si>
+  <si>
+    <t>link_agencyProcessFinancialAgencies_wait</t>
   </si>
 </sst>
 </file>
@@ -497,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -539,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -551,13 +554,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -566,13 +569,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -581,10 +584,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -596,7 +599,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -611,10 +614,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -625,37 +628,37 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -666,8 +669,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -681,13 +684,28 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -698,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B183CF68-87B6-4CA6-84B3-EA13F7648886}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
